--- a/public/statistics sample.xlsx
+++ b/public/statistics sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shady Osama\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shady Osama\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>DATA SOURCE</t>
   </si>
@@ -84,16 +84,33 @@
   </si>
   <si>
     <t>write here</t>
+  </si>
+  <si>
+    <t>DLD</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>DUBAI</t>
+  </si>
+  <si>
+    <t>Al Barsha South Fifth</t>
+  </si>
+  <si>
+    <t>Commercial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yy"/>
     <numFmt numFmtId="165" formatCode="mmm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="168" formatCode="mm\-yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -107,25 +124,30 @@
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF980000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -185,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -223,9 +245,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -250,16 +269,10 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,13 +555,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="76.5">
       <c r="A1" s="1" t="s">
@@ -614,25 +634,51 @@
       <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
+      <c r="D2" s="21">
+        <v>43467</v>
+      </c>
+      <c r="E2" s="22">
+        <v>43467</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16">
+        <v>887.66</v>
+      </c>
+      <c r="P2" s="17">
+        <v>2400000</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>2703.74</v>
+      </c>
+      <c r="R2" s="19" t="e">
+        <f>O2*$W$2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" s="20" t="e">
+        <f t="shared" ref="S2" si="0">P2/R2</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -640,206 +686,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
